--- a/score-sheets/a.xlsx
+++ b/score-sheets/a.xlsx
@@ -31,7 +31,7 @@
     <t>考评时间</t>
   </si>
   <si>
-    <t>12 February, 2017</t>
+    <t>11 February, 2017</t>
   </si>
   <si>
     <t>姓名 \ 项目</t>
